--- a/relations/datasets/caldic.xlsx
+++ b/relations/datasets/caldic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A16EB-2494-1543-AA15-956E458968A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145AAD08-523A-1644-9A9C-7E7CB2A6BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="1240" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="216">
   <si>
     <t>Project</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">"Business As Usual". Program to implement standard business applications on global level. </t>
-  </si>
-  <si>
-    <t>Global Humans Resources Information System</t>
   </si>
   <si>
     <t>Financial Consolidation</t>
@@ -618,6 +615,81 @@
   </si>
   <si>
     <t>PIM Software</t>
+  </si>
+  <si>
+    <t>Success Factors</t>
+  </si>
+  <si>
+    <t>Lead Integration Architect</t>
+  </si>
+  <si>
+    <t>Kattamuri Jayarajyalakshmi</t>
+  </si>
+  <si>
+    <t>Global Human Resources Information System</t>
+  </si>
+  <si>
+    <t>iBorn</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Target Pricing Engine</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>Gorjan Buzharouski</t>
+  </si>
+  <si>
+    <t>IG&amp;H</t>
+  </si>
+  <si>
+    <t>Global Architecture Team</t>
+  </si>
+  <si>
+    <t>Killian Hesterman</t>
+  </si>
+  <si>
+    <t>Rinke Kleinentink</t>
+  </si>
+  <si>
+    <t>Daina van der Wal</t>
+  </si>
+  <si>
+    <t>Agnese Bula</t>
+  </si>
+  <si>
+    <t>Budget Tool, 
+BugetTool =&gt; Connect. Nu gestopt met Budget Tool, vervangen door Excel, inlezen in Connect, via MDM naar Snowflake. 
+X item aan deze klant, alleen voor produkten voor Connect (AXE, AXN), dus niet voor Latam, Connell. 
+Er moet een andere manier komen om de budgetten te gaan inlezen.</t>
+  </si>
+  <si>
+    <t>Caldic Connect</t>
+  </si>
+  <si>
+    <t>Apac DWH To Snowflake</t>
+  </si>
+  <si>
+    <t>Apac CRM To GDP</t>
+  </si>
+  <si>
+    <t>Microstrategy Apac BI Tool. Lift&amp;Shift Apac DWH to Snowflake, not to GDP?</t>
+  </si>
+  <si>
+    <t>Excel Budgets</t>
+  </si>
+  <si>
+    <t>Caldic Connect Decommissioning</t>
+  </si>
+  <si>
+    <t>Finance Transformation Director</t>
   </si>
 </sst>
 </file>
@@ -698,8 +770,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I105" totalsRowShown="0">
-  <autoFilter ref="A1:I105" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I121" totalsRowShown="0">
+  <autoFilter ref="A1:I121" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
     <sortCondition ref="A1:A62"/>
   </sortState>
@@ -719,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C116" totalsRowShown="0">
-  <autoFilter ref="A1:C116" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C140" totalsRowShown="0">
+  <autoFilter ref="A1:C140" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Target"/>
@@ -1018,13 +1090,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1141,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1138,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1309,7 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1251,7 +1323,7 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
@@ -1265,7 +1337,7 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1281,12 +1353,12 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -1298,12 +1370,12 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -1317,7 +1389,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1331,7 +1403,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1345,7 +1417,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1382,7 +1454,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1396,7 +1468,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1410,7 +1482,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1453,12 +1525,12 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -1484,7 +1556,7 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1506,7 +1578,7 @@
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1520,7 +1592,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1532,7 +1604,7 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1634,6 +1706,9 @@
       <c r="D34" t="s">
         <v>46</v>
       </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -1665,10 +1740,19 @@
       <c r="C36" t="s">
         <v>45</v>
       </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1740,7 +1824,7 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1895,7 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1828,7 +1912,7 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1845,7 +1929,7 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1868,9 +1952,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1882,12 +1966,12 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -1901,7 +1985,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -1958,19 +2042,19 @@
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
         <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2058,7 +2142,7 @@
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
         <v>44</v>
@@ -2109,7 +2193,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
@@ -2120,7 +2204,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -2134,7 +2218,7 @@
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -2146,15 +2230,15 @@
         <v>75</v>
       </c>
       <c r="F63" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" t="s">
         <v>129</v>
-      </c>
-      <c r="I63" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
@@ -2166,12 +2250,12 @@
         <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
@@ -2183,12 +2267,12 @@
         <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
@@ -2202,7 +2286,7 @@
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
@@ -2212,11 +2296,17 @@
       </c>
       <c r="D67" t="s">
         <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2226,45 +2316,48 @@
       </c>
       <c r="D68" t="s">
         <v>46</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
         <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2276,29 +2369,29 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -2312,7 +2405,7 @@
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -2326,7 +2419,7 @@
     </row>
     <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
@@ -2340,7 +2433,7 @@
     </row>
     <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
@@ -2354,7 +2447,7 @@
     </row>
     <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -2368,7 +2461,7 @@
     </row>
     <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -2382,7 +2475,7 @@
     </row>
     <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -2396,7 +2489,7 @@
     </row>
     <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -2406,11 +2499,14 @@
       </c>
       <c r="D80" t="s">
         <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -2424,7 +2520,7 @@
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -2438,7 +2534,7 @@
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -2452,7 +2548,7 @@
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -2466,7 +2562,7 @@
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -2480,7 +2576,7 @@
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -2494,7 +2590,7 @@
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -2508,7 +2604,7 @@
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -2522,7 +2618,7 @@
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
@@ -2536,7 +2632,7 @@
     </row>
     <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
@@ -2550,7 +2646,7 @@
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -2564,7 +2660,7 @@
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
         <v>44</v>
@@ -2578,7 +2674,7 @@
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -2592,7 +2688,7 @@
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
@@ -2607,18 +2703,18 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
         <v>46</v>
@@ -2626,13 +2722,13 @@
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
         <v>174</v>
-      </c>
-      <c r="B96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" t="s">
-        <v>175</v>
       </c>
       <c r="D96" t="s">
         <v>46</v>
@@ -2640,13 +2736,13 @@
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
@@ -2654,21 +2750,24 @@
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
         <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -2682,7 +2781,7 @@
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2696,44 +2795,47 @@
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" t="s">
         <v>181</v>
       </c>
-      <c r="B101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" t="s">
-        <v>46</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="I101" t="s">
         <v>182</v>
-      </c>
-      <c r="I101" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
         <v>184</v>
-      </c>
-      <c r="B102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D102" t="s">
-        <v>46</v>
-      </c>
-      <c r="F102" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
         <v>96</v>
@@ -2745,12 +2847,12 @@
         <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
@@ -2762,12 +2864,12 @@
         <v>79</v>
       </c>
       <c r="I104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
@@ -2779,7 +2881,216 @@
         <v>51</v>
       </c>
       <c r="I105" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2796,11 +3107,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2941,7 +3252,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2981,7 +3292,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -2989,7 +3300,7 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2997,7 +3308,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3160,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3192,7 +3503,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3200,140 +3511,140 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
@@ -3344,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3352,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3360,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3368,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3376,23 +3687,23 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3405,15 +3716,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
@@ -3421,7 +3732,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
@@ -3429,186 +3740,186 @@
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" t="s">
         <v>170</v>
-      </c>
-      <c r="B100" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3616,36 +3927,36 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
         <v>92</v>
@@ -3653,7 +3964,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
         <v>94</v>
@@ -3661,15 +3972,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
@@ -3677,66 +3988,258 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" t="s">
         <v>180</v>
-      </c>
-      <c r="B112" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/relations/datasets/caldic.xlsx
+++ b/relations/datasets/caldic.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145AAD08-523A-1644-9A9C-7E7CB2A6BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13536C39-F651-8243-ABE3-ECF9A49A0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="1240" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="EdgesReporting" sheetId="2" r:id="rId2"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOV_Name">Table1[id]</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="216">
   <si>
     <t>Project</t>
   </si>
@@ -791,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C140" totalsRowShown="0">
-  <autoFilter ref="A1:C140" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C141" totalsRowShown="0">
+  <autoFilter ref="A1:C141" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Target"/>
@@ -1092,11 +1092,11 @@
   </sheetPr>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3107,11 +3107,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3706,20 +3706,20 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>33</v>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,15 +3735,15 @@
         <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>146</v>
+      <c r="B78" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3911,31 +3911,31 @@
         <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>8</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>179</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3951,15 +3951,15 @@
         <v>179</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>179</v>
       </c>
-      <c r="B105" t="s">
-        <v>92</v>
+      <c r="B105" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,15 +3983,15 @@
         <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,15 +4007,15 @@
         <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,23 +4023,23 @@
         <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,55 +4047,55 @@
         <v>186</v>
       </c>
       <c r="B116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>183</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,15 +4103,15 @@
         <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,31 +4119,31 @@
         <v>110</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>203</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,47 +4191,47 @@
         <v>203</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,6 +4239,14 @@
         <v>214</v>
       </c>
       <c r="B140" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>214</v>
+      </c>
+      <c r="B141" t="s">
         <v>155</v>
       </c>
     </row>

--- a/relations/datasets/caldic.xlsx
+++ b/relations/datasets/caldic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13536C39-F651-8243-ABE3-ECF9A49A0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD76F2C-CA37-3447-BAC3-6B3733F529CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="1240" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="234">
   <si>
     <t>Project</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Global Finance</t>
   </si>
   <si>
-    <t>Corporate IT Director</t>
-  </si>
-  <si>
     <t>Lenno.Maris</t>
   </si>
   <si>
@@ -273,18 +270,12 @@
     <t>Northam IT</t>
   </si>
   <si>
-    <t>Head of Infrastructure</t>
-  </si>
-  <si>
     <t>Apac</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Head of IT&amp;Analytics</t>
-  </si>
-  <si>
     <t>Bangkok</t>
   </si>
   <si>
@@ -394,9 +385,6 @@
   </si>
   <si>
     <t>ERP-SAP4HANA</t>
-  </si>
-  <si>
-    <t>CE Manager D365</t>
   </si>
   <si>
     <t>Richard Cammish</t>
@@ -690,6 +678,72 @@
   </si>
   <si>
     <t>Finance Transformation Director</t>
+  </si>
+  <si>
+    <t>Niels de Brabander</t>
+  </si>
+  <si>
+    <t>Justin Emsoff</t>
+  </si>
+  <si>
+    <t>Charles Beall</t>
+  </si>
+  <si>
+    <t>Ametra Tipton</t>
+  </si>
+  <si>
+    <t>Raphael Queiroz de Castro Lins</t>
+  </si>
+  <si>
+    <t>Horvath</t>
+  </si>
+  <si>
+    <t>Onestream Implementation Partner</t>
+  </si>
+  <si>
+    <t>Rafiqul Islam</t>
+  </si>
+  <si>
+    <t>IT Director</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Antoni Tuells</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Rob King</t>
+  </si>
+  <si>
+    <t>Technology Operations Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial &amp; Digital Solutions Director </t>
+  </si>
+  <si>
+    <t>Sebastian Lustermans</t>
+  </si>
+  <si>
+    <t>IT Transformation Director</t>
+  </si>
+  <si>
+    <t>Charlie Trimmings</t>
+  </si>
+  <si>
+    <t>Phil Nedeljkovic</t>
+  </si>
+  <si>
+    <t>Technology Modernization</t>
+  </si>
+  <si>
+    <t>IT Vendor Manager</t>
+  </si>
+  <si>
+    <t>Chief Information Security Officer</t>
   </si>
 </sst>
 </file>
@@ -770,8 +824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I121" totalsRowShown="0">
-  <autoFilter ref="A1:I121" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I134" totalsRowShown="0">
+  <autoFilter ref="A1:I134" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
     <sortCondition ref="A1:A62"/>
   </sortState>
@@ -791,8 +845,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C141" totalsRowShown="0">
-  <autoFilter ref="A1:C141" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C149" totalsRowShown="0">
+  <autoFilter ref="A1:C149" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Target"/>
@@ -1090,13 +1144,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1195,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1155,22 +1209,22 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1210,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,7 +1284,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,7 +1301,7 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1264,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1284,7 +1338,7 @@
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,18 +1352,18 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1323,7 +1377,7 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
@@ -1337,7 +1391,7 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1353,12 +1407,12 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -1370,12 +1424,12 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -1389,7 +1443,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1403,7 +1457,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1417,7 +1471,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1440,21 +1494,21 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1468,7 +1522,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1482,7 +1536,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1496,27 +1550,27 @@
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
@@ -1525,12 +1579,12 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -1547,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -1556,7 +1610,7 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1578,7 +1632,7 @@
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1592,7 +1646,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1604,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
@@ -1647,7 +1701,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1655,47 +1709,47 @@
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
@@ -1707,32 +1761,32 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1744,15 +1798,15 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1767,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,16 +1835,16 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
         <v>80</v>
       </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,7 +1878,7 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1866,7 +1920,7 @@
     </row>
     <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1878,7 +1932,7 @@
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1895,7 +1949,7 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1912,7 +1966,7 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1929,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1949,12 +2003,12 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -1966,12 +2020,12 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -1985,7 +2039,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2042,7 +2096,7 @@
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
@@ -2054,7 +2108,7 @@
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2068,13 +2122,13 @@
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2091,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2142,7 +2196,7 @@
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
         <v>44</v>
@@ -2173,38 +2227,38 @@
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
         <v>74</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -2218,7 +2272,7 @@
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -2227,52 +2281,52 @@
         <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
@@ -2286,7 +2340,7 @@
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
@@ -2301,12 +2355,12 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2323,10 +2377,10 @@
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
         <v>45</v>
@@ -2335,15 +2389,15 @@
         <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>45</v>
@@ -2352,12 +2406,12 @@
         <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2369,12 +2423,12 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>44</v>
@@ -2386,12 +2440,12 @@
         <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -2405,7 +2459,7 @@
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -2419,7 +2473,7 @@
     </row>
     <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
@@ -2433,7 +2487,7 @@
     </row>
     <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
@@ -2447,7 +2501,7 @@
     </row>
     <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -2461,7 +2515,7 @@
     </row>
     <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -2475,7 +2529,7 @@
     </row>
     <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -2489,7 +2543,7 @@
     </row>
     <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -2501,12 +2555,12 @@
         <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -2520,7 +2574,7 @@
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -2534,7 +2588,7 @@
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -2548,7 +2602,7 @@
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -2562,7 +2616,7 @@
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -2576,7 +2630,7 @@
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -2590,7 +2644,7 @@
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -2604,7 +2658,7 @@
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -2618,7 +2672,7 @@
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
@@ -2632,7 +2686,7 @@
     </row>
     <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
@@ -2646,7 +2700,7 @@
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -2660,7 +2714,7 @@
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
         <v>44</v>
@@ -2674,7 +2728,7 @@
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -2688,7 +2742,7 @@
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
@@ -2703,18 +2757,18 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
         <v>46</v>
@@ -2722,13 +2776,13 @@
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
         <v>46</v>
@@ -2736,13 +2790,13 @@
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
@@ -2750,24 +2804,24 @@
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
         <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -2781,7 +2835,7 @@
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2795,7 +2849,7 @@
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
         <v>44</v>
@@ -2807,15 +2861,15 @@
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
         <v>44</v>
@@ -2830,29 +2884,29 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
@@ -2861,15 +2915,15 @@
         <v>45</v>
       </c>
       <c r="D104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I104" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
@@ -2881,35 +2935,35 @@
         <v>51</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
         <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
         <v>46</v>
       </c>
       <c r="E106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D107" t="s">
         <v>46</v>
@@ -2917,10 +2971,10 @@
     </row>
     <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
         <v>45</v>
@@ -2929,12 +2983,12 @@
         <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
         <v>44</v>
@@ -2946,18 +3000,18 @@
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
         <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
         <v>46</v>
@@ -2965,13 +3019,13 @@
     </row>
     <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
         <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
         <v>46</v>
@@ -2979,13 +3033,13 @@
     </row>
     <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D112" t="s">
         <v>46</v>
@@ -2993,7 +3047,7 @@
     </row>
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
         <v>40</v>
@@ -3007,7 +3061,7 @@
     </row>
     <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
         <v>44</v>
@@ -3018,18 +3072,18 @@
     </row>
     <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
         <v>44</v>
@@ -3038,23 +3092,23 @@
         <v>46</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
@@ -3062,10 +3116,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D119" t="s">
         <v>46</v>
@@ -3073,10 +3127,10 @@
     </row>
     <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D120" t="s">
         <v>46</v>
@@ -3084,12 +3138,200 @@
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
       </c>
       <c r="D121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
+        <v>223</v>
+      </c>
+      <c r="F129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3107,11 +3349,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3252,7 +3494,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -3292,7 +3534,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3300,7 +3542,7 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -3308,7 +3550,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3471,12 +3713,12 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -3484,7 +3726,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -3492,7 +3734,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -3500,154 +3742,154 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3905,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3671,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3679,36 +3921,36 @@
         <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -3724,15 +3966,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -3740,7 +3982,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -3748,186 +3990,186 @@
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,60 +4177,60 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -3996,71 +4238,71 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
         <v>179</v>
-      </c>
-      <c r="B114" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -4068,15 +4310,15 @@
     </row>
     <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -4084,23 +4326,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -4108,55 +4350,55 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
         <v>23</v>
@@ -4164,7 +4406,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -4172,7 +4414,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>33</v>
@@ -4180,55 +4422,55 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
         <v>17</v>
@@ -4236,18 +4478,82 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B141" t="s">
-        <v>155</v>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/relations/datasets/caldic.xlsx
+++ b/relations/datasets/caldic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD76F2C-CA37-3447-BAC3-6B3733F529CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E94E68-D27F-DB4C-A33F-4DF92A057C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="1240" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="246">
   <si>
     <t>Project</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Gajendra Khera</t>
-  </si>
-  <si>
-    <t>Hans van Gelder</t>
   </si>
   <si>
     <t>Daniel vd Ven</t>
@@ -744,6 +741,45 @@
   </si>
   <si>
     <t>Chief Information Security Officer</t>
+  </si>
+  <si>
+    <t>Squadra</t>
+  </si>
+  <si>
+    <t>Mark Dumay</t>
+  </si>
+  <si>
+    <t>Hans van Gelder (Leaving)</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Chief Internal Audit</t>
+  </si>
+  <si>
+    <t>Risk Committee</t>
+  </si>
+  <si>
+    <t>Henk Boden</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Wim Koenen</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>September 2024 eerste meeting</t>
+  </si>
+  <si>
+    <t>DPO</t>
+  </si>
+  <si>
+    <t>Samira.El.Idrissi</t>
   </si>
 </sst>
 </file>
@@ -824,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I134" totalsRowShown="0">
-  <autoFilter ref="A1:I134" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I142" totalsRowShown="0">
+  <autoFilter ref="A1:I142" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
     <sortCondition ref="A1:A62"/>
   </sortState>
@@ -845,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C149" totalsRowShown="0">
-  <autoFilter ref="A1:C149" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C156" totalsRowShown="0">
+  <autoFilter ref="A1:C156" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Target"/>
@@ -1144,13 +1180,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B136" sqref="B136"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1231,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1264,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,7 +1399,7 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1377,7 +1413,7 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
@@ -1412,7 +1448,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -1424,12 +1460,12 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -1443,7 +1479,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1457,7 +1493,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1471,7 +1507,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1500,7 +1536,7 @@
         <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
@@ -1522,7 +1558,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1536,7 +1572,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1579,7 +1615,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,7 +1668,7 @@
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1646,7 +1682,7 @@
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1658,7 +1694,7 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1744,7 +1780,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1797,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,15 +1834,15 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
         <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1821,7 +1857,7 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,12 +2056,12 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -2039,7 +2075,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2096,19 +2132,19 @@
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2196,7 +2232,7 @@
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>44</v>
@@ -2247,7 +2283,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
@@ -2258,7 +2294,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -2272,7 +2308,7 @@
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -2284,15 +2320,15 @@
         <v>74</v>
       </c>
       <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" t="s">
         <v>124</v>
-      </c>
-      <c r="I63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
@@ -2304,12 +2340,12 @@
         <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
@@ -2321,12 +2357,12 @@
         <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
@@ -2340,7 +2376,7 @@
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
         <v>44</v>
@@ -2360,7 +2396,7 @@
     </row>
     <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2377,41 +2413,41 @@
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="C70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2423,29 +2459,29 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -2459,7 +2495,7 @@
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -2473,7 +2509,7 @@
     </row>
     <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
@@ -2487,7 +2523,7 @@
     </row>
     <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
         <v>44</v>
@@ -2501,7 +2537,7 @@
     </row>
     <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -2515,7 +2551,7 @@
     </row>
     <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -2529,7 +2565,7 @@
     </row>
     <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -2543,7 +2579,7 @@
     </row>
     <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -2555,12 +2591,12 @@
         <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -2574,7 +2610,7 @@
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -2588,7 +2624,7 @@
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -2602,7 +2638,7 @@
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -2616,7 +2652,7 @@
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -2630,7 +2666,7 @@
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -2644,7 +2680,7 @@
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -2658,7 +2694,7 @@
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -2672,7 +2708,7 @@
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
@@ -2686,7 +2722,7 @@
     </row>
     <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
@@ -2700,7 +2736,7 @@
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -2714,7 +2750,7 @@
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
         <v>44</v>
@@ -2728,7 +2764,7 @@
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
         <v>44</v>
@@ -2742,7 +2778,7 @@
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
@@ -2757,18 +2793,18 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
         <v>46</v>
@@ -2776,13 +2812,13 @@
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
         <v>169</v>
-      </c>
-      <c r="B96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" t="s">
-        <v>170</v>
       </c>
       <c r="D96" t="s">
         <v>46</v>
@@ -2790,13 +2826,13 @@
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
@@ -2804,24 +2840,24 @@
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D98" t="s">
         <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -2835,7 +2871,7 @@
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2849,27 +2885,27 @@
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" t="s">
         <v>176</v>
       </c>
-      <c r="B101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" t="s">
-        <v>46</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="I101" t="s">
         <v>177</v>
-      </c>
-      <c r="I101" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
         <v>44</v>
@@ -2884,29 +2920,29 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
@@ -2918,12 +2954,12 @@
         <v>77</v>
       </c>
       <c r="I104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
@@ -2935,35 +2971,35 @@
         <v>51</v>
       </c>
       <c r="I105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
         <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
         <v>46</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" t="s">
         <v>192</v>
       </c>
-      <c r="B107" t="s">
-        <v>193</v>
-      </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107" t="s">
         <v>46</v>
@@ -2971,7 +3007,7 @@
     </row>
     <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
         <v>93</v>
@@ -2983,12 +3019,12 @@
         <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
         <v>44</v>
@@ -3000,18 +3036,18 @@
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B110" t="s">
         <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
         <v>46</v>
@@ -3019,13 +3055,13 @@
     </row>
     <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
         <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
         <v>46</v>
@@ -3033,13 +3069,13 @@
     </row>
     <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D112" t="s">
         <v>46</v>
@@ -3047,7 +3083,7 @@
     </row>
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
         <v>40</v>
@@ -3061,7 +3097,7 @@
     </row>
     <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s">
         <v>44</v>
@@ -3072,43 +3108,43 @@
     </row>
     <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B116" t="s">
-        <v>44</v>
-      </c>
-      <c r="D116" t="s">
-        <v>46</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
@@ -3116,7 +3152,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
         <v>93</v>
@@ -3127,7 +3163,7 @@
     </row>
     <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
         <v>93</v>
@@ -3138,7 +3174,7 @@
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
@@ -3149,51 +3185,51 @@
     </row>
     <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B122" t="s">
         <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s">
         <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B124" t="s">
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B125" t="s">
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
         <v>44</v>
@@ -3207,21 +3243,21 @@
     </row>
     <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" t="s">
+        <v>216</v>
+      </c>
+      <c r="I127" t="s">
         <v>217</v>
-      </c>
-      <c r="B127" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" t="s">
-        <v>217</v>
-      </c>
-      <c r="I127" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
         <v>44</v>
@@ -3233,97 +3269,97 @@
         <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
         <v>222</v>
       </c>
-      <c r="B129" t="s">
-        <v>44</v>
-      </c>
-      <c r="C129" t="s">
-        <v>45</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F129" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" t="s">
         <v>224</v>
       </c>
-      <c r="B130" t="s">
-        <v>44</v>
-      </c>
-      <c r="C130" t="s">
-        <v>45</v>
-      </c>
-      <c r="D130" t="s">
-        <v>46</v>
-      </c>
-      <c r="F130" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" t="s">
         <v>227</v>
       </c>
-      <c r="B131" t="s">
-        <v>44</v>
-      </c>
-      <c r="C131" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
-      </c>
-      <c r="F131" t="s">
+    </row>
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B132" t="s">
-        <v>44</v>
-      </c>
-      <c r="C132" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132" t="s">
-        <v>46</v>
-      </c>
-      <c r="F132" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" t="s">
-        <v>46</v>
-      </c>
-      <c r="F133" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
@@ -3333,6 +3369,133 @@
       </c>
       <c r="D134" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" t="s">
+        <v>233</v>
+      </c>
+      <c r="D135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+      <c r="D136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3349,11 +3512,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3494,7 +3657,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -3534,7 +3697,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3542,7 +3705,7 @@
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -3550,7 +3713,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3713,7 +3876,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3766,7 +3929,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
         <v>103</v>
@@ -3774,7 +3937,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -3782,111 +3945,111 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -3905,7 +4068,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3913,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3921,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3929,28 +4092,28 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -3966,15 +4129,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -3982,7 +4145,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -3990,186 +4153,186 @@
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" t="s">
         <v>165</v>
-      </c>
-      <c r="B101" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4177,36 +4340,36 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>89</v>
@@ -4214,7 +4377,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -4222,15 +4385,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -4238,47 +4401,47 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
         <v>175</v>
-      </c>
-      <c r="B113" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
         <v>100</v>
@@ -4286,15 +4449,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
@@ -4302,7 +4465,7 @@
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -4310,15 +4473,15 @@
     </row>
     <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -4326,23 +4489,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -4350,47 +4513,47 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
         <v>69</v>
@@ -4398,7 +4561,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
         <v>23</v>
@@ -4406,7 +4569,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -4414,7 +4577,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>33</v>
@@ -4422,23 +4585,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" t="s">
         <v>199</v>
-      </c>
-      <c r="B134" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
         <v>104</v>
@@ -4446,15 +4609,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
         <v>72</v>
@@ -4462,15 +4625,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s">
         <v>17</v>
@@ -4478,58 +4641,58 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4537,12 +4700,12 @@
         <v>100</v>
       </c>
       <c r="B147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
         <v>31</v>
@@ -4550,10 +4713,66 @@
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>238</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>238</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>238</v>
+      </c>
+      <c r="B156" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
